--- a/analysis/pre_gemini_data/Participant130/task_med.xlsx
+++ b/analysis/pre_gemini_data/Participant130/task_med.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,167 +422,163 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>condbody2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>condiioanlsttae3</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>conditioanlstate2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>conditionalbody1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>conditionalstate1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>condtionbody3</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>exceptionhandl1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>exceptionhandl2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>externalvar</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>externalvar2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>externalvar3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>externalvar4</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>externalvar5</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>loop body</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>loop state</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>param1</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>param2</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>var1</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
@@ -647,13 +631,13 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
         <v>7</v>
@@ -665,22 +649,22 @@
         <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
@@ -694,17 +678,17 @@
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="U3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V3" t="n">
         <v>2</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
         <v>4</v>
@@ -713,10 +697,10 @@
         <v>4</v>
       </c>
       <c r="AA3" t="n">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="AB3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -740,13 +724,13 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" t="n">
         <v>9</v>
@@ -758,22 +742,22 @@
         <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="n">
         <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
@@ -787,17 +771,17 @@
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="U4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V4" t="n">
         <v>3</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y4" t="n">
         <v>6</v>
@@ -806,10 +790,10 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>429</v>
+        <v>197</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>1</v>
@@ -833,13 +817,13 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>12807</v>
+        <v>8600.799999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>113487.35</v>
+        <v>96356.44</v>
       </c>
       <c r="E5" t="n">
-        <v>8241.66</v>
+        <v>7757.81</v>
       </c>
       <c r="F5" t="n">
         <v>3102.99</v>
@@ -851,22 +835,22 @@
         <v>6907.09</v>
       </c>
       <c r="I5" t="n">
-        <v>13498.2</v>
+        <v>13081.08</v>
       </c>
       <c r="J5" t="n">
         <v>1851.89</v>
       </c>
       <c r="K5" t="n">
-        <v>41960.76</v>
+        <v>35769.38</v>
       </c>
       <c r="L5" t="n">
-        <v>16776.62</v>
+        <v>16009.19</v>
       </c>
       <c r="M5" t="n">
         <v>550.5700000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>11078</v>
+        <v>10660.89</v>
       </c>
       <c r="O5" t="n">
         <v>3536.94</v>
@@ -880,17 +864,17 @@
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>77180.58</v>
+        <v>69587.72</v>
       </c>
       <c r="U5" t="n">
-        <v>13889.85</v>
+        <v>12788.75</v>
       </c>
       <c r="V5" t="n">
         <v>783.95</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>17435.07</v>
+        <v>15917.11</v>
       </c>
       <c r="Y5" t="n">
         <v>2953.01</v>
@@ -899,10 +883,10 @@
         <v>3737.25</v>
       </c>
       <c r="AA5" t="n">
-        <v>159745.97</v>
+        <v>76892.25999999999</v>
       </c>
       <c r="AB5" t="n">
-        <v>11305.97</v>
+        <v>7099.77</v>
       </c>
       <c r="AC5" t="n">
         <v>300.3</v>
@@ -926,46 +910,46 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="D6" t="n">
-        <v>21.45</v>
+        <v>30.68</v>
       </c>
       <c r="E6" t="n">
-        <v>1.81</v>
+        <v>2.48</v>
       </c>
       <c r="F6" t="n">
-        <v>0.68</v>
+        <v>0.99</v>
       </c>
       <c r="G6" t="n">
-        <v>1.14</v>
+        <v>1.65</v>
       </c>
       <c r="H6" t="n">
-        <v>1.52</v>
+        <v>2.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.97</v>
+        <v>4.17</v>
       </c>
       <c r="J6" t="n">
-        <v>0.41</v>
+        <v>0.59</v>
       </c>
       <c r="K6" t="n">
-        <v>9.23</v>
+        <v>11.41</v>
       </c>
       <c r="L6" t="n">
-        <v>3.69</v>
+        <v>5.11</v>
       </c>
       <c r="M6" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="N6" t="n">
-        <v>2.44</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>0.78</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>0.72</v>
+        <v>1.04</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
@@ -973,42 +957,42 @@
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>16.98</v>
+        <v>22.2</v>
       </c>
       <c r="U6" t="n">
-        <v>3.05</v>
+        <v>4.08</v>
       </c>
       <c r="V6" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>3.83</v>
+        <v>5.08</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.65</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.82</v>
+        <v>1.19</v>
       </c>
       <c r="AA6" t="n">
-        <v>25.56</v>
+        <v>24.49</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.49</v>
+        <v>2.27</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.33</v>
+        <v>0.47</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.09</v>
+        <v>3.03</v>
       </c>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="7">
@@ -1019,13 +1003,13 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>533.62</v>
+        <v>430.04</v>
       </c>
       <c r="D7" t="n">
-        <v>388.66</v>
+        <v>369.18</v>
       </c>
       <c r="E7" t="n">
-        <v>343.4</v>
+        <v>352.63</v>
       </c>
       <c r="F7" t="n">
         <v>344.78</v>
@@ -1037,22 +1021,22 @@
         <v>575.59</v>
       </c>
       <c r="I7" t="n">
-        <v>562.42</v>
+        <v>568.74</v>
       </c>
       <c r="J7" t="n">
         <v>308.65</v>
       </c>
       <c r="K7" t="n">
-        <v>428.17</v>
+        <v>393.07</v>
       </c>
       <c r="L7" t="n">
-        <v>524.27</v>
+        <v>533.64</v>
       </c>
       <c r="M7" t="n">
         <v>275.28</v>
       </c>
       <c r="N7" t="n">
-        <v>738.53</v>
+        <v>761.49</v>
       </c>
       <c r="O7" t="n">
         <v>1178.98</v>
@@ -1066,17 +1050,17 @@
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>408.36</v>
+        <v>393.15</v>
       </c>
       <c r="U7" t="n">
-        <v>462.99</v>
+        <v>440.99</v>
       </c>
       <c r="V7" t="n">
         <v>261.32</v>
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>435.88</v>
+        <v>430.19</v>
       </c>
       <c r="Y7" t="n">
         <v>492.17</v>
@@ -1085,10 +1069,10 @@
         <v>373.72</v>
       </c>
       <c r="AA7" t="n">
-        <v>372.37</v>
+        <v>390.32</v>
       </c>
       <c r="AB7" t="n">
-        <v>595.05</v>
+        <v>473.32</v>
       </c>
       <c r="AC7" t="n">
         <v>300.3</v>
@@ -1232,41 +1216,6 @@
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
